--- a/Notam_Decoder/NOTAM_Decoder.xlsx
+++ b/Notam_Decoder/NOTAM_Decoder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="723">
   <si>
     <t>ABN</t>
   </si>
@@ -2204,6 +2204,14 @@
   </si>
   <si>
     <t>SOURCE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work In Progress</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2607,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C359"/>
+  <dimension ref="A1:C360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C79" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="A352" sqref="A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -6482,22 +6490,22 @@
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B353" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
@@ -6505,10 +6513,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
@@ -6516,10 +6524,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
@@ -6527,10 +6535,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>2</v>
@@ -6538,10 +6546,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
@@ -6549,10 +6557,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
@@ -6560,13 +6568,21 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B360" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
